--- a/biology/Virologie/Contrôleur_du_VIH/Contrôleur_du_VIH.xlsx
+++ b/biology/Virologie/Contrôleur_du_VIH/Contrôleur_du_VIH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Contr%C3%B4leur_du_VIH</t>
+          <t>Contrôleur_du_VIH</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les « contrôleurs du VIH » (HIC, en anglais « HIV controllers ») sont des patients séropositifs infectés par le VIH, mais qui ne développent pas le sida et dont l'organisme parvient spontanément et durablement à contrôler la réplication virale, maintenant le virus indétectable ou presque dans le plasma (jusqu’à moins de 50 copies d’ARN viral par mL)[1],[2].
-Cette notion, fondée sur un critère virologique, est apparue en 2004[1] afin de désigner des patients particulièrement résistants à l'infection par le VIH que les notions d'« asymptomatiques à long terme » (ALT) ou « non progresseurs à long terme » (NPLT), fondées sur un critère immunologique, ne parvenaient pas à caractériser. Les « contrôleurs du VIH » sont moins nombreux que ces derniers dont on peut dire qu'ils forment un sous-groupe[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les « contrôleurs du VIH » (HIC, en anglais « HIV controllers ») sont des patients séropositifs infectés par le VIH, mais qui ne développent pas le sida et dont l'organisme parvient spontanément et durablement à contrôler la réplication virale, maintenant le virus indétectable ou presque dans le plasma (jusqu’à moins de 50 copies d’ARN viral par mL),.
+Cette notion, fondée sur un critère virologique, est apparue en 2004 afin de désigner des patients particulièrement résistants à l'infection par le VIH que les notions d'« asymptomatiques à long terme » (ALT) ou « non progresseurs à long terme » (NPLT), fondées sur un critère immunologique, ne parvenaient pas à caractériser. Les « contrôleurs du VIH » sont moins nombreux que ces derniers dont on peut dire qu'ils forment un sous-groupe,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Contr%C3%B4leur_du_VIH</t>
+          <t>Contrôleur_du_VIH</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,17 @@
           <t>Définition des contrôleurs du VIH</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parmi les patients asymptomatiques à long terme, il a été observé que certains maintenaient durablement le développement du virus à des niveaux particulièrement faibles[1].
-Les « contrôleurs du VIH », ou « contrôleurs du sida », ont alors été définis, en 2004, selon un critère virologique[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les patients asymptomatiques à long terme, il a été observé que certains maintenaient durablement le développement du virus à des niveaux particulièrement faibles.
+Les « contrôleurs du VIH », ou « contrôleurs du sida », ont alors été définis, en 2004, selon un critère virologique :
 séropositivité pour le VIH connue depuis plus de dix ans,
 jamais de traitement anti-rétroviral (à l’exception d’un éventuel traitement transitoire pour éviter une transmission de la mère à l’enfant),
 quantité d'ARN viral circulante inférieure à 400 copies/mL (c'est-à-dire une charge virale indétectable avec les tests commerciaux utilisés dans les années 1995) dans plus de 90 % des tests de charge virale plasmatique effectués.
-Ils représentent moins d'1 % des séropositifs[4]. En France, en 2008, une centaine de contrôleurs du VIH étaient connus[5],[6].
-Ils font l'objet de recherches qui pourraient conduire à des médicaments ou à un vaccin contre le VIH[7].
+Ils représentent moins d'1 % des séropositifs. En France, en 2008, une centaine de contrôleurs du VIH étaient connus,.
+Ils font l'objet de recherches qui pourraient conduire à des médicaments ou à un vaccin contre le VIH.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Contr%C3%B4leur_du_VIH</t>
+          <t>Contrôleur_du_VIH</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,14 +563,16 @@
           <t>Autres terminologies et définitions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les contrôleurs du VIH sont parfois aussi appelés « elite controllers »[8] c'est-à-dire « contrôleurs d'élite », ou encore « aviremic controllers ».
-La définition des « elite controllers » est cependant différente de celle des contrôleurs du VIH utilisée par l'Observatoire national des « HIV Controllers ». Elle est la suivante [9]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les contrôleurs du VIH sont parfois aussi appelés « elite controllers » c'est-à-dire « contrôleurs d'élite », ou encore « aviremic controllers ».
+La définition des « elite controllers » est cependant différente de celle des contrôleurs du VIH utilisée par l'Observatoire national des « HIV Controllers ». Elle est la suivante :
 pas de traitement rétroviral pendant au moins un an,
 quantité d'ARN viral circulante inférieure à 50 copies/ml (c'est-à-dire une charge virale indétectable avec les tests ultrasensibles actuels[Quand ?]) avec acceptation de tests à virémie supérieure à condition qu'ils soient non consécutifs.
-On estime que 1 personne sur 300 infectées par le VIH fait partie de ce groupe[8].
-Les chercheurs qui utilisent la notion de elite controller distinguent aussi celle des viremic controller, en la définissant par le maintien d'une charge virale comprise entre 50 et 2 000 copies d'ARN viral/ml[9] sans traitement rétroviral pendant au moins un an, avec acceptation de tests à virémie supérieure à condition qu'ils soient minoritaires.
+On estime que 1 personne sur 300 infectées par le VIH fait partie de ce groupe.
+Les chercheurs qui utilisent la notion de elite controller distinguent aussi celle des viremic controller, en la définissant par le maintien d'une charge virale comprise entre 50 et 2 000 copies d'ARN viral/ml sans traitement rétroviral pendant au moins un an, avec acceptation de tests à virémie supérieure à condition qu'ils soient minoritaires.
 </t>
         </is>
       </c>
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Contr%C3%B4leur_du_VIH</t>
+          <t>Contrôleur_du_VIH</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,9 +601,11 @@
           <t>Mécanismes de contrôle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les recherches ont montré que les contrôleurs du VIH présentent un phénotype de lymphocytes T8 unique, qui confère à ces derniers la capacité de tuer les lymphocytes T4 infectés[10],[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les recherches ont montré que les contrôleurs du VIH présentent un phénotype de lymphocytes T8 unique, qui confère à ces derniers la capacité de tuer les lymphocytes T4 infectés,.
 </t>
         </is>
       </c>
